--- a/InputData/elec/CDRDfRCP/Cln Dsptchble Rsrc Dmnd for Rlbty Curve Param.xlsx
+++ b/InputData/elec/CDRDfRCP/Cln Dsptchble Rsrc Dmnd for Rlbty Curve Param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\CDRDfRCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5650AD1B-C0BA-4B3D-AD2B-DEFFB05BA2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5881D2B-FBBE-4E3A-97DC-892210235A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDCF7A3C-4581-48BB-A680-D5CBB461C8EB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDCF7A3C-4581-48BB-A680-D5CBB461C8EB}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CDRDfRCP Clean Dispatchable Resource Demand for Reliabilty Curve Paramaters</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Required clena firm</t>
+  </si>
+  <si>
+    <t>We avoid having this increase too sharply in the last few percent of requirement to avoid</t>
+  </si>
+  <si>
+    <t>artificially high CES credit prices in the model.</t>
   </si>
 </sst>
 </file>
@@ -403,151 +409,151 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.3345183610335988E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7757968180565077E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.3503723246920407E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.0948404411468292E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.0548669420009678E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.2871968066592338E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.8620531956736788E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.8659893966219769E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.551115123125783E-18</c:v>
+                  <c:v>1.1405263483894035E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6653345369377351E-17</c:v>
+                  <c:v>1.4609811682472217E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1062266354383615E-17</c:v>
+                  <c:v>1.8637901468158136E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0539125955565397E-16</c:v>
+                  <c:v>2.3681548265671039E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6058269965196816E-16</c:v>
+                  <c:v>2.9972778773873499E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1149748619109233E-15</c:v>
+                  <c:v>3.7790817418671967E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6502359175046883E-15</c:v>
+                  <c:v>4.7470257398569141E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0539125955565396E-14</c:v>
+                  <c:v>5.9410250432745957E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2400085099056931E-14</c:v>
+                  <c:v>7.4084704568779251E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8650636590678006E-13</c:v>
+                  <c:v>9.2053410628561982E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4873883215122991E-13</c:v>
+                  <c:v>1.1397391661842615E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5899781491413023E-12</c:v>
+                  <c:v>1.406138252443695E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5389081382296588E-12</c:v>
+                  <c:v>1.7286299009540041E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2771117496868101E-11</c:v>
+                  <c:v>2.1174481702520621E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5431807487995574E-11</c:v>
+                  <c:v>2.5842552420247689E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.6963675977335131E-11</c:v>
+                  <c:v>3.1421976435896727E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.6183864521023282E-10</c:v>
+                  <c:v>3.8059045878387158E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9794099943898406E-10</c:v>
+                  <c:v>4.5914003965626393E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8370015453239576E-9</c:v>
+                  <c:v>5.5158957263671321E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7758002441611331E-9</c:v>
+                  <c:v>6.5974149898884119E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2267704280199966E-8</c:v>
+                  <c:v>7.8542111497937779E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1145162993073687E-8</c:v>
+                  <c:v>9.3039159295859718E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.8172304796009229E-8</c:v>
+                  <c:v>1.0962376409663188E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9403068323153861E-7</c:v>
+                  <c:v>1.2842142086152065E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.7638569630192865E-7</c:v>
+                  <c:v>1.4950594952808677E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.15725410513301E-6</c:v>
+                  <c:v>1.7287764710475297E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.7821855297760492E-6</c:v>
+                  <c:v>1.9843946630412508E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.6210903952146356E-6</c:v>
+                  <c:v>2.2597342306981179E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5600803848198064E-5</c:v>
+                  <c:v>2.5512067623070053E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6400444973472278E-5</c:v>
+                  <c:v>2.853699948673204E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.4107941297706379E-5</c:v>
+                  <c:v>3.1606027941427882E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.9243394277213E-4</c:v>
+                  <c:v>3.4640289033344603E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.3571467423015323E-4</c:v>
+                  <c:v>3.7552809826340114E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.7491479588711078E-4</c:v>
+                  <c:v>4.0255641018243658E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1483338811260355E-3</c:v>
+                  <c:v>4.2668969178507668E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.6277060486618286E-3</c:v>
+                  <c:v>4.4730964824285228E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.5923357822252763E-3</c:v>
+                  <c:v>4.640643664684916E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.8541891846878166E-2</c:v>
+                  <c:v>4.7692043118172142E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1606027941427882E-2</c:v>
+                  <c:v>4.8616190328389854E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.4125085859779797E-2</c:v>
+                  <c:v>4.9232966777728315E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9471822020543572E-2</c:v>
+                  <c:v>4.9611286513068079E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,7 +1650,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,6 +1690,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
@@ -1698,7 +1714,7 @@
       </c>
       <c r="B15" s="4">
         <f>(1-EXP(-((A15)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>1.3345183610335988E-5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1707,7 +1723,7 @@
       </c>
       <c r="B16" s="4">
         <f>(1-EXP(-((A16)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>1.7757968180565077E-5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1732,7 @@
       </c>
       <c r="B17" s="4">
         <f>(1-EXP(-((A17)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>2.3503723246920407E-5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1741,7 @@
       </c>
       <c r="B18" s="4">
         <f>(1-EXP(-((A18)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>3.0948404411468292E-5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1750,7 @@
       </c>
       <c r="B19" s="4">
         <f>(1-EXP(-((A19)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>4.0548669420009678E-5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1759,7 @@
       </c>
       <c r="B20" s="4">
         <f>(1-EXP(-((A20)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>5.2871968066592338E-5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1768,7 @@
       </c>
       <c r="B21" s="4">
         <f>(1-EXP(-((A21)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>6.8620531956736788E-5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1777,7 @@
       </c>
       <c r="B22" s="4">
         <f>(1-EXP(-((A22)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>0</v>
+        <v>8.8659893966219769E-5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1786,7 @@
       </c>
       <c r="B23" s="4">
         <f>(1-EXP(-((A23)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>5.551115123125783E-18</v>
+        <v>1.1405263483894035E-4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1795,7 @@
       </c>
       <c r="B24" s="4">
         <f>(1-EXP(-((A24)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.6653345369377351E-17</v>
+        <v>1.4609811682472217E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1804,7 @@
       </c>
       <c r="B25" s="4">
         <f>(1-EXP(-((A25)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>6.1062266354383615E-17</v>
+        <v>1.8637901468158136E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1813,7 @@
       </c>
       <c r="B26" s="4">
         <f>(1-EXP(-((A26)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>2.0539125955565397E-16</v>
+        <v>2.3681548265671039E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1822,7 @@
       </c>
       <c r="B27" s="4">
         <f>(1-EXP(-((A27)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>6.6058269965196816E-16</v>
+        <v>2.9972778773873499E-4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1831,7 @@
       </c>
       <c r="B28" s="4">
         <f>(1-EXP(-((A28)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>2.1149748619109233E-15</v>
+        <v>3.7790817418671967E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1840,7 @@
       </c>
       <c r="B29" s="4">
         <f>(1-EXP(-((A29)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>6.6502359175046883E-15</v>
+        <v>4.7470257398569141E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +1849,7 @@
       </c>
       <c r="B30" s="4">
         <f>(1-EXP(-((A30)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>2.0539125955565396E-14</v>
+        <v>5.9410250432745957E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1858,7 @@
       </c>
       <c r="B31" s="4">
         <f>(1-EXP(-((A31)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>6.2400085099056931E-14</v>
+        <v>7.4084704568779251E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,7 +1867,7 @@
       </c>
       <c r="B32" s="4">
         <f>(1-EXP(-((A32)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.8650636590678006E-13</v>
+        <v>9.2053410628561982E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1876,7 @@
       </c>
       <c r="B33" s="4">
         <f>(1-EXP(-((A33)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>5.4873883215122991E-13</v>
+        <v>1.1397391661842615E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1885,7 @@
       </c>
       <c r="B34" s="4">
         <f>(1-EXP(-((A34)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.5899781491413023E-12</v>
+        <v>1.406138252443695E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1894,7 @@
       </c>
       <c r="B35" s="4">
         <f>(1-EXP(-((A35)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>4.5389081382296588E-12</v>
+        <v>1.7286299009540041E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1903,7 @@
       </c>
       <c r="B36" s="4">
         <f>(1-EXP(-((A36)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.2771117496868101E-11</v>
+        <v>2.1174481702520621E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +1912,7 @@
       </c>
       <c r="B37" s="4">
         <f>(1-EXP(-((A37)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>3.5431807487995574E-11</v>
+        <v>2.5842552420247689E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1921,7 @@
       </c>
       <c r="B38" s="4">
         <f>(1-EXP(-((A38)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>9.6963675977335131E-11</v>
+        <v>3.1421976435896727E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1930,7 @@
       </c>
       <c r="B39" s="4">
         <f>(1-EXP(-((A39)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>2.6183864521023282E-10</v>
+        <v>3.8059045878387158E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1923,7 +1939,7 @@
       </c>
       <c r="B40" s="4">
         <f>(1-EXP(-((A40)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>6.9794099943898406E-10</v>
+        <v>4.5914003965626393E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1948,7 @@
       </c>
       <c r="B41" s="4">
         <f>(1-EXP(-((A41)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.8370015453239576E-9</v>
+        <v>5.5158957263671321E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1957,7 @@
       </c>
       <c r="B42" s="4">
         <f>(1-EXP(-((A42)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>4.7758002441611331E-9</v>
+        <v>6.5974149898884119E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1966,7 @@
       </c>
       <c r="B43" s="4">
         <f>(1-EXP(-((A43)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.2267704280199966E-8</v>
+        <v>7.8542111497937779E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1975,7 @@
       </c>
       <c r="B44" s="4">
         <f>(1-EXP(-((A44)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>3.1145162993073687E-8</v>
+        <v>9.3039159295859718E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +1984,7 @@
       </c>
       <c r="B45" s="4">
         <f>(1-EXP(-((A45)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>7.8172304796009229E-8</v>
+        <v>1.0962376409663188E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +1993,7 @@
       </c>
       <c r="B46" s="4">
         <f>(1-EXP(-((A46)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.9403068323153861E-7</v>
+        <v>1.2842142086152065E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,7 +2002,7 @@
       </c>
       <c r="B47" s="4">
         <f>(1-EXP(-((A47)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>4.7638569630192865E-7</v>
+        <v>1.4950594952808677E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +2011,7 @@
       </c>
       <c r="B48" s="4">
         <f>(1-EXP(-((A48)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.15725410513301E-6</v>
+        <v>1.7287764710475297E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2020,7 @@
       </c>
       <c r="B49" s="4">
         <f>(1-EXP(-((A49)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>2.7821855297760492E-6</v>
+        <v>1.9843946630412508E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,7 +2029,7 @@
       </c>
       <c r="B50" s="4">
         <f>(1-EXP(-((A50)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>6.6210903952146356E-6</v>
+        <v>2.2597342306981179E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2038,7 @@
       </c>
       <c r="B51" s="4">
         <f>(1-EXP(-((A51)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.5600803848198064E-5</v>
+        <v>2.5512067623070053E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2047,7 @@
       </c>
       <c r="B52" s="4">
         <f>(1-EXP(-((A52)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>3.6400444973472278E-5</v>
+        <v>2.853699948673204E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2056,7 @@
       </c>
       <c r="B53" s="4">
         <f>(1-EXP(-((A53)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>8.4107941297706379E-5</v>
+        <v>3.1606027941427882E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2065,7 @@
       </c>
       <c r="B54" s="4">
         <f>(1-EXP(-((A54)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.9243394277213E-4</v>
+        <v>3.4640289033344603E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2058,7 +2074,7 @@
       </c>
       <c r="B55" s="4">
         <f>(1-EXP(-((A55)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>4.3571467423015323E-4</v>
+        <v>3.7552809826340114E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2083,7 @@
       </c>
       <c r="B56" s="4">
         <f>(1-EXP(-((A56)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>9.7491479588711078E-4</v>
+        <v>4.0255641018243658E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +2092,7 @@
       </c>
       <c r="B57" s="4">
         <f>(1-EXP(-((A57)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>2.1483338811260355E-3</v>
+        <v>4.2668969178507668E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2101,7 @@
       </c>
       <c r="B58" s="4">
         <f>(1-EXP(-((A58)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>4.6277060486618286E-3</v>
+        <v>4.4730964824285228E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2110,7 @@
       </c>
       <c r="B59" s="4">
         <f>(1-EXP(-((A59)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>9.5923357822252763E-3</v>
+        <v>4.640643664684916E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2119,7 @@
       </c>
       <c r="B60" s="4">
         <f>(1-EXP(-((A60)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>1.8541891846878166E-2</v>
+        <v>4.7692043118172142E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2128,7 @@
       </c>
       <c r="B61" s="4">
         <f>(1-EXP(-((A61)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>3.1606027941427882E-2</v>
+        <v>4.8616190328389854E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2137,7 @@
       </c>
       <c r="B62" s="4">
         <f>(1-EXP(-((A62)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>4.4125085859779797E-2</v>
+        <v>4.9232966777728315E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,7 +2146,7 @@
       </c>
       <c r="B63" s="4">
         <f>(1-EXP(-((A63)/CDRDfRCP!$B$2)^CDRDfRCP!$B$1))*CDRDfRCP!$B$3</f>
-        <v>4.9471822020543572E-2</v>
+        <v>4.9611286513068079E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2163,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="B1">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2184,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
